--- a/Code/Results/Cases/Case_4_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_205/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.65229572233746</v>
+        <v>17.25418433921579</v>
       </c>
       <c r="C2">
-        <v>14.54504122865697</v>
+        <v>16.09581905353889</v>
       </c>
       <c r="D2">
-        <v>10.31728212763521</v>
+        <v>14.35991293450656</v>
       </c>
       <c r="E2">
-        <v>9.893086997376104</v>
+        <v>14.93513336620661</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.158649435372196</v>
+        <v>3.793155217024867</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.12948313023033</v>
+        <v>37.6659530161923</v>
       </c>
       <c r="J2">
-        <v>4.982739889013768</v>
+        <v>8.82351175058921</v>
       </c>
       <c r="K2">
-        <v>15.74392556788977</v>
+        <v>19.12735587125486</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.56926592955705</v>
+        <v>21.98481685026091</v>
       </c>
       <c r="N2">
-        <v>19.10867412978889</v>
+        <v>26.43419441940317</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.80185273343054</v>
+        <v>17.12391956109014</v>
       </c>
       <c r="C3">
-        <v>13.84831782012293</v>
+        <v>15.98405259244906</v>
       </c>
       <c r="D3">
-        <v>10.00118977995893</v>
+        <v>14.3444761988353</v>
       </c>
       <c r="E3">
-        <v>9.687237320551292</v>
+        <v>14.94076598569405</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.168953485325025</v>
+        <v>3.796767125185716</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.63061832243383</v>
+        <v>37.61144220260938</v>
       </c>
       <c r="J3">
-        <v>5.005631003993639</v>
+        <v>8.840621077749718</v>
       </c>
       <c r="K3">
-        <v>15.02247403305947</v>
+        <v>19.04235823541827</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.08381502469319</v>
+        <v>21.9647693011153</v>
       </c>
       <c r="N3">
-        <v>19.11113753233851</v>
+        <v>26.44213538842156</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.26809714276296</v>
+        <v>17.04841928110624</v>
       </c>
       <c r="C4">
-        <v>13.41612076240281</v>
+        <v>15.91919679858167</v>
       </c>
       <c r="D4">
-        <v>9.810089526706598</v>
+        <v>14.33790738031995</v>
       </c>
       <c r="E4">
-        <v>9.565601997074959</v>
+        <v>14.94685528084141</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.175430374398911</v>
+        <v>3.799099635494282</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.33728241086837</v>
+        <v>37.58320638954465</v>
       </c>
       <c r="J4">
-        <v>5.021202227771705</v>
+        <v>8.851896124568841</v>
       </c>
       <c r="K4">
-        <v>14.57545949590559</v>
+        <v>18.99481787523009</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.79014012068131</v>
+        <v>21.95699638179263</v>
       </c>
       <c r="N4">
-        <v>19.11825092904639</v>
+        <v>26.44872963585438</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.04790083356052</v>
+        <v>17.01880893173174</v>
       </c>
       <c r="C5">
-        <v>13.2390695730672</v>
+        <v>15.8937367004669</v>
       </c>
       <c r="D5">
-        <v>9.733028927188531</v>
+        <v>14.33596366010755</v>
       </c>
       <c r="E5">
-        <v>9.517239619714173</v>
+        <v>14.94999822028002</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.178109806037736</v>
+        <v>3.800079124422488</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.22095397799702</v>
+        <v>37.57301963624448</v>
       </c>
       <c r="J5">
-        <v>5.027923243463034</v>
+        <v>8.856684772901444</v>
       </c>
       <c r="K5">
-        <v>14.39249136063581</v>
+        <v>18.97662764319254</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.67167404883133</v>
+        <v>21.954971751991</v>
       </c>
       <c r="N5">
-        <v>19.12249970118242</v>
+        <v>26.45184879563389</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.01118278191462</v>
+        <v>17.01396282790125</v>
       </c>
       <c r="C6">
-        <v>13.2096203445512</v>
+        <v>15.88956819467926</v>
       </c>
       <c r="D6">
-        <v>9.720284238304496</v>
+        <v>14.33568522124235</v>
       </c>
       <c r="E6">
-        <v>9.509282113528482</v>
+        <v>14.95056005037477</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.178557206133454</v>
+        <v>3.800243520843365</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.20182996541554</v>
+        <v>37.57140791723484</v>
       </c>
       <c r="J6">
-        <v>5.029061794054542</v>
+        <v>8.857491651423189</v>
       </c>
       <c r="K6">
-        <v>14.36206780255357</v>
+        <v>18.97367898518155</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.65207905927711</v>
+        <v>21.95470464178401</v>
       </c>
       <c r="N6">
-        <v>19.12328510748175</v>
+        <v>26.45239281272828</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.2651380388643</v>
+        <v>17.04801522533345</v>
       </c>
       <c r="C7">
-        <v>13.41373647723112</v>
+        <v>15.91884948382841</v>
       </c>
       <c r="D7">
-        <v>9.809046874351807</v>
+        <v>14.3378781965598</v>
       </c>
       <c r="E7">
-        <v>9.564944874657334</v>
+        <v>14.94689498945422</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.175466345096474</v>
+        <v>3.799112727775211</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.33570064397581</v>
+        <v>37.58306366074464</v>
       </c>
       <c r="J7">
-        <v>5.021291355946947</v>
+        <v>8.851959920043145</v>
       </c>
       <c r="K7">
-        <v>14.57299488313758</v>
+        <v>18.99456774894833</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.78853740755941</v>
+        <v>21.95696444706174</v>
       </c>
       <c r="N7">
-        <v>19.11830283776061</v>
+        <v>26.44876995332576</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.36158505581418</v>
+        <v>17.20835693624498</v>
       </c>
       <c r="C8">
-        <v>14.3058220336557</v>
+        <v>16.05651300817981</v>
       </c>
       <c r="D8">
-        <v>10.20771145212626</v>
+        <v>14.35398756193255</v>
       </c>
       <c r="E8">
-        <v>9.82112777542825</v>
+        <v>14.93652949632118</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.16217253716646</v>
+        <v>3.794376845051008</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.95475041188073</v>
+        <v>37.64607362899816</v>
       </c>
       <c r="J8">
-        <v>4.990314597225614</v>
+        <v>8.829251498197568</v>
       </c>
       <c r="K8">
-        <v>15.4961219343553</v>
+        <v>19.09709273952664</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.40102974652323</v>
+        <v>21.97696446023685</v>
       </c>
       <c r="N8">
-        <v>19.10832471352371</v>
+        <v>26.43657570249807</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.41267540455669</v>
+        <v>17.5569614656122</v>
       </c>
       <c r="C9">
-        <v>16.0143458252256</v>
+        <v>16.35535932541371</v>
       </c>
       <c r="D9">
-        <v>11.01071446624048</v>
+        <v>14.40857636389351</v>
       </c>
       <c r="E9">
-        <v>10.36095413858611</v>
+        <v>14.93707228650118</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.137181851725388</v>
+        <v>3.78599559732658</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>30.27421923495964</v>
+        <v>37.81098952931313</v>
       </c>
       <c r="J9">
-        <v>4.941874865610442</v>
+        <v>8.79081143326342</v>
       </c>
       <c r="K9">
-        <v>17.2671124429603</v>
+        <v>19.33434103569485</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.63307156204279</v>
+        <v>22.05205344251895</v>
       </c>
       <c r="N9">
-        <v>19.13604121953132</v>
+        <v>26.42630669269455</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.85333697592583</v>
+        <v>17.8319166593815</v>
       </c>
       <c r="C10">
-        <v>17.23980536378082</v>
+        <v>16.59106350668357</v>
       </c>
       <c r="D10">
-        <v>11.61115122897744</v>
+        <v>14.46255974154352</v>
       </c>
       <c r="E10">
-        <v>10.78030143954439</v>
+        <v>14.95017634467596</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.119304350299193</v>
+        <v>3.780383159583796</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.31224902262731</v>
+        <v>37.95708991995534</v>
       </c>
       <c r="J10">
-        <v>4.914215806633962</v>
+        <v>8.76625918744662</v>
       </c>
       <c r="K10">
-        <v>18.53767675579062</v>
+        <v>19.52969169380732</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.55314398041313</v>
+        <v>22.12887888691689</v>
       </c>
       <c r="N10">
-        <v>19.18954299833547</v>
+        <v>26.42709312558734</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.5171386685157</v>
+        <v>17.96063321290007</v>
       </c>
       <c r="C11">
-        <v>17.79065226260346</v>
+        <v>16.70145628853206</v>
       </c>
       <c r="D11">
-        <v>11.88632939018822</v>
+        <v>14.49009075897861</v>
       </c>
       <c r="E11">
-        <v>10.97611132822003</v>
+        <v>14.95888805863527</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.111232244233911</v>
+        <v>3.777946833846719</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.80058284307849</v>
+        <v>38.02889558395506</v>
       </c>
       <c r="J11">
-        <v>4.903463658982503</v>
+        <v>8.75588595165909</v>
       </c>
       <c r="K11">
-        <v>19.10849893245993</v>
+        <v>19.62288380068163</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.97453478812246</v>
+        <v>22.1684716600693</v>
       </c>
       <c r="N11">
-        <v>19.22214899927291</v>
+        <v>26.42926221462374</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.78856314845492</v>
+        <v>18.00985784194643</v>
       </c>
       <c r="C12">
-        <v>17.99833190406925</v>
+        <v>16.74368478214142</v>
       </c>
       <c r="D12">
-        <v>11.99082508653369</v>
+        <v>14.50093935236318</v>
       </c>
       <c r="E12">
-        <v>11.05100405550539</v>
+        <v>14.96258128875459</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.10818007249937</v>
+        <v>3.777040942714673</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.98794669660538</v>
+        <v>38.05684718586534</v>
       </c>
       <c r="J12">
-        <v>4.899665667692492</v>
+        <v>8.75207191605058</v>
       </c>
       <c r="K12">
-        <v>19.32363371173468</v>
+        <v>19.65877247472243</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.13451270136672</v>
+        <v>22.18412591894965</v>
       </c>
       <c r="N12">
-        <v>19.2357851243574</v>
+        <v>26.43034410937786</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.73026929856401</v>
+        <v>17.99923563562171</v>
       </c>
       <c r="C13">
-        <v>17.95364396167824</v>
+        <v>16.73457170864345</v>
       </c>
       <c r="D13">
-        <v>11.96830691292436</v>
+        <v>14.49858416752915</v>
       </c>
       <c r="E13">
-        <v>11.03484107982106</v>
+        <v>14.96176837176832</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.108837280748126</v>
+        <v>3.777235301810991</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.94748365306402</v>
+        <v>38.0507936281756</v>
       </c>
       <c r="J13">
-        <v>4.900471284196635</v>
+        <v>8.75288826829747</v>
       </c>
       <c r="K13">
-        <v>19.2773455197771</v>
+        <v>19.65101695476039</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.10004025182826</v>
+        <v>22.18072519307772</v>
       </c>
       <c r="N13">
-        <v>19.23278930651868</v>
+        <v>26.43009951764313</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.53954230279709</v>
+        <v>17.96467351927625</v>
       </c>
       <c r="C14">
-        <v>17.80775613899725</v>
+        <v>16.70492211004521</v>
       </c>
       <c r="D14">
-        <v>11.89492040786128</v>
+        <v>14.49097482488102</v>
       </c>
       <c r="E14">
-        <v>10.9822577485666</v>
+        <v>14.95918400869909</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.110981074320921</v>
+        <v>3.777871971683301</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.81594762665502</v>
+        <v>38.03117998947742</v>
       </c>
       <c r="J14">
-        <v>4.903145648015346</v>
+        <v>8.755569884169443</v>
       </c>
       <c r="K14">
-        <v>19.12621851199183</v>
+        <v>19.62582451885202</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.98768803458113</v>
+        <v>22.16974633129731</v>
       </c>
       <c r="N14">
-        <v>19.22324440791871</v>
+        <v>26.42934600172607</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.42223836750636</v>
+        <v>17.94356483508795</v>
       </c>
       <c r="C15">
-        <v>17.71827846139621</v>
+        <v>16.68681531734827</v>
       </c>
       <c r="D15">
-        <v>11.85000732642924</v>
+        <v>14.48636885572858</v>
       </c>
       <c r="E15">
-        <v>10.95014652547041</v>
+        <v>14.9576523190858</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.11229467234439</v>
+        <v>3.778264121171454</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.73570020980588</v>
+        <v>38.01926483697585</v>
       </c>
       <c r="J15">
-        <v>4.904819737012788</v>
+        <v>8.757227298419675</v>
       </c>
       <c r="K15">
-        <v>19.03351655390304</v>
+        <v>19.61047070277779</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.9189223944098</v>
+        <v>22.1631073801656</v>
       </c>
       <c r="N15">
-        <v>19.21756889134054</v>
+        <v>26.42891837768985</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.81117086147941</v>
+        <v>17.82357447806837</v>
       </c>
       <c r="C16">
-        <v>17.20367524809382</v>
+        <v>16.58391025989121</v>
       </c>
       <c r="D16">
-        <v>11.59320815229918</v>
+        <v>14.4608199966245</v>
       </c>
       <c r="E16">
-        <v>10.76760765483949</v>
+        <v>14.94966226274058</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.119832755731847</v>
+        <v>3.780544720689734</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.28066973479672</v>
+        <v>37.95250410964527</v>
       </c>
       <c r="J16">
-        <v>4.914956176336994</v>
+        <v>8.766953085459708</v>
       </c>
       <c r="K16">
-        <v>18.50022763900134</v>
+        <v>19.52368646204916</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.52566145900295</v>
+        <v>22.12638432321546</v>
       </c>
       <c r="N16">
-        <v>19.18758680247722</v>
+        <v>26.42698782364787</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.44000247495073</v>
+        <v>17.75086740134801</v>
       </c>
       <c r="C17">
-        <v>16.88630039463788</v>
+        <v>16.52157164223731</v>
       </c>
       <c r="D17">
-        <v>11.43618522943235</v>
+        <v>14.44590524667809</v>
       </c>
       <c r="E17">
-        <v>10.65692809150185</v>
+        <v>14.9454643175648</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.124469820674231</v>
+        <v>3.781973636421066</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.00573372390985</v>
+        <v>37.91291175119692</v>
       </c>
       <c r="J17">
-        <v>4.921650340677944</v>
+        <v>8.77312309833377</v>
       </c>
       <c r="K17">
-        <v>18.17122864886084</v>
+        <v>19.47153899227187</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.28512637149039</v>
+        <v>22.10504106755569</v>
       </c>
       <c r="N17">
-        <v>19.17137928092495</v>
+        <v>26.42626746029343</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.22513457028317</v>
+        <v>17.7093931421499</v>
       </c>
       <c r="C18">
-        <v>16.70312664627136</v>
+        <v>16.48601636574113</v>
       </c>
       <c r="D18">
-        <v>11.34606047831293</v>
+        <v>14.43760687243769</v>
       </c>
       <c r="E18">
-        <v>10.59374148726328</v>
+        <v>14.94330876176155</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.127142903159016</v>
+        <v>3.782806510900843</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.84910714208894</v>
+        <v>37.89064279733472</v>
       </c>
       <c r="J18">
-        <v>4.925672210658846</v>
+        <v>8.776746841959476</v>
       </c>
       <c r="K18">
-        <v>17.9813197392555</v>
+        <v>19.44195380929346</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.14704324115089</v>
+        <v>22.09320259196774</v>
       </c>
       <c r="N18">
-        <v>19.16282877301819</v>
+        <v>26.42602361841552</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.15214639310294</v>
+        <v>17.69541113806511</v>
       </c>
       <c r="C19">
-        <v>16.64099883273857</v>
+        <v>16.47403044858459</v>
       </c>
       <c r="D19">
-        <v>11.31557886753429</v>
+        <v>14.43484543603507</v>
       </c>
       <c r="E19">
-        <v>10.57242850979272</v>
+        <v>14.94262344321481</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.128049105614195</v>
+        <v>3.783090400290615</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.79633197653666</v>
+        <v>37.88318962639708</v>
       </c>
       <c r="J19">
-        <v>4.927063114275059</v>
+        <v>8.777986656415218</v>
       </c>
       <c r="K19">
-        <v>17.91690399413296</v>
+        <v>19.43200765215413</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.10033695306138</v>
+        <v>22.08926963286447</v>
       </c>
       <c r="N19">
-        <v>19.16006336614679</v>
+        <v>26.42597033794185</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.47965687912028</v>
+        <v>17.75857178723124</v>
       </c>
       <c r="C20">
-        <v>16.92015036149175</v>
+        <v>16.52817683964282</v>
       </c>
       <c r="D20">
-        <v>11.45288091958058</v>
+        <v>14.44746397860625</v>
       </c>
       <c r="E20">
-        <v>10.66866103317218</v>
+        <v>14.94588439959708</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.123975608190948</v>
+        <v>3.781820388202583</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.03484411345603</v>
+        <v>37.91707436895121</v>
       </c>
       <c r="J20">
-        <v>4.920919907473236</v>
+        <v>8.77245853894569</v>
       </c>
       <c r="K20">
-        <v>18.20632134710152</v>
+        <v>19.47704804931733</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.31070429415687</v>
+        <v>22.10726784866774</v>
       </c>
       <c r="N20">
-        <v>19.1730240471027</v>
+        <v>26.42632649864348</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.59566277617133</v>
+        <v>17.97481248481762</v>
       </c>
       <c r="C21">
-        <v>17.85063121832153</v>
+        <v>16.71361962587626</v>
       </c>
       <c r="D21">
-        <v>11.91646780289278</v>
+        <v>14.49319842552771</v>
       </c>
       <c r="E21">
-        <v>10.99768236260991</v>
+        <v>14.95993240893992</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.110351301884818</v>
+        <v>3.777684514098165</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.85451554101082</v>
+        <v>38.0369204230344</v>
       </c>
       <c r="J21">
-        <v>4.902352607243468</v>
+        <v>8.754779135060042</v>
       </c>
       <c r="K21">
-        <v>19.17063567552327</v>
+        <v>19.63320808623858</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.02067745202198</v>
+        <v>22.17295319644421</v>
       </c>
       <c r="N21">
-        <v>19.22601214389903</v>
+        <v>26.42956025740623</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.37896667420032</v>
+        <v>18.11893108453795</v>
       </c>
       <c r="C22">
-        <v>18.45347516357825</v>
+        <v>16.83728053122012</v>
       </c>
       <c r="D22">
-        <v>12.22116213490974</v>
+        <v>14.52555284222065</v>
       </c>
       <c r="E22">
-        <v>11.21706891032151</v>
+        <v>14.97141108070508</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.101471310653841</v>
+        <v>3.775078730667698</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.4045327474921</v>
+        <v>38.11967438934569</v>
       </c>
       <c r="J22">
-        <v>4.891818419778901</v>
+        <v>8.743889435261396</v>
       </c>
       <c r="K22">
-        <v>19.79494131922032</v>
+        <v>19.7387466853107</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.48707487367757</v>
+        <v>22.21973358606067</v>
       </c>
       <c r="N22">
-        <v>19.26821031976733</v>
+        <v>26.4331921318154</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.9628148355404</v>
+        <v>18.04177036324376</v>
       </c>
       <c r="C23">
-        <v>18.13218504244977</v>
+        <v>16.77106530779</v>
       </c>
       <c r="D23">
-        <v>12.05837965828496</v>
+        <v>14.50806078155038</v>
       </c>
       <c r="E23">
-        <v>11.09957098877412</v>
+        <v>14.96507495368775</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.106210008773432</v>
+        <v>3.776460621979018</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.10962026718729</v>
+        <v>38.07510478004999</v>
       </c>
       <c r="J23">
-        <v>4.897290468936903</v>
+        <v>8.74964075321882</v>
       </c>
       <c r="K23">
-        <v>19.46226654315015</v>
+        <v>19.68210838284653</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.23792432612091</v>
+        <v>22.19441597418911</v>
       </c>
       <c r="N23">
-        <v>19.24496000676124</v>
+        <v>26.43111479423322</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.46173372939898</v>
+        <v>17.75508761580165</v>
       </c>
       <c r="C24">
-        <v>16.90484900751092</v>
+        <v>16.52518974287763</v>
       </c>
       <c r="D24">
-        <v>11.4453323310664</v>
+        <v>14.44675841490651</v>
       </c>
       <c r="E24">
-        <v>10.66335518677017</v>
+        <v>14.94569367710879</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.124199019009449</v>
+        <v>3.781889636290789</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.02167883687428</v>
+        <v>37.91519091244913</v>
       </c>
       <c r="J24">
-        <v>4.921249597291403</v>
+        <v>8.772758747864266</v>
       </c>
       <c r="K24">
-        <v>18.19045831479846</v>
+        <v>19.47455617219926</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.29913988024312</v>
+        <v>22.10625977466287</v>
       </c>
       <c r="N24">
-        <v>19.17227806543614</v>
+        <v>26.42629927686907</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.86919588455896</v>
+        <v>17.45919577536643</v>
       </c>
       <c r="C25">
-        <v>15.55717686105935</v>
+        <v>16.27156692013156</v>
       </c>
       <c r="D25">
-        <v>10.7915074611604</v>
+        <v>14.39135933674146</v>
       </c>
       <c r="E25">
-        <v>10.21093335570317</v>
+        <v>14.93469204556397</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.143843971498986</v>
+        <v>3.788166693239797</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.90556749005869</v>
+        <v>37.76197330375021</v>
       </c>
       <c r="J25">
-        <v>4.953620272934186</v>
+        <v>8.800560851360778</v>
       </c>
       <c r="K25">
-        <v>16.79305656685828</v>
+        <v>19.2663836184476</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.29693917480069</v>
+        <v>22.02791845344457</v>
       </c>
       <c r="N25">
-        <v>19.12305925383884</v>
+        <v>26.42762251324469</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_205/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_205/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.25418433921579</v>
+        <v>15.65229572233745</v>
       </c>
       <c r="C2">
-        <v>16.09581905353889</v>
+        <v>14.54504122865697</v>
       </c>
       <c r="D2">
-        <v>14.35991293450656</v>
+        <v>10.3172821276351</v>
       </c>
       <c r="E2">
-        <v>14.93513336620661</v>
+        <v>9.893086997376143</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.793155217024867</v>
+        <v>2.158649435372063</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>37.6659530161923</v>
+        <v>29.1294831302302</v>
       </c>
       <c r="J2">
-        <v>8.82351175058921</v>
+        <v>4.982739889013837</v>
       </c>
       <c r="K2">
-        <v>19.12735587125486</v>
+        <v>15.74392556788974</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21.98481685026091</v>
+        <v>15.56926592955703</v>
       </c>
       <c r="N2">
-        <v>26.43419441940317</v>
+        <v>19.10867412978886</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.12391956109014</v>
+        <v>14.8018527334305</v>
       </c>
       <c r="C3">
-        <v>15.98405259244906</v>
+        <v>13.84831782012292</v>
       </c>
       <c r="D3">
-        <v>14.3444761988353</v>
+        <v>10.00118977995899</v>
       </c>
       <c r="E3">
-        <v>14.94076598569405</v>
+        <v>9.687237320551329</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.796767125185716</v>
+        <v>2.168953485325157</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>37.61144220260938</v>
+        <v>28.6306183224338</v>
       </c>
       <c r="J3">
-        <v>8.840621077749718</v>
+        <v>5.00563100399364</v>
       </c>
       <c r="K3">
-        <v>19.04235823541827</v>
+        <v>15.02247403305943</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21.9647693011153</v>
+        <v>15.08381502469318</v>
       </c>
       <c r="N3">
-        <v>26.44213538842156</v>
+        <v>19.11113753233852</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.04841928110624</v>
+        <v>14.26809714276297</v>
       </c>
       <c r="C4">
-        <v>15.91919679858167</v>
+        <v>13.41612076240274</v>
       </c>
       <c r="D4">
-        <v>14.33790738031995</v>
+        <v>9.81008952670666</v>
       </c>
       <c r="E4">
-        <v>14.94685528084141</v>
+        <v>9.565601997074866</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.799099635494282</v>
+        <v>2.175430374398778</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>37.58320638954465</v>
+        <v>28.33728241086829</v>
       </c>
       <c r="J4">
-        <v>8.851896124568841</v>
+        <v>5.021202227771669</v>
       </c>
       <c r="K4">
-        <v>18.99481787523009</v>
+        <v>14.57545949590557</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.95699638179263</v>
+        <v>14.79014012068127</v>
       </c>
       <c r="N4">
-        <v>26.44872963585438</v>
+        <v>19.11825092904636</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.01880893173174</v>
+        <v>14.0479008335605</v>
       </c>
       <c r="C5">
-        <v>15.8937367004669</v>
+        <v>13.23906957306716</v>
       </c>
       <c r="D5">
-        <v>14.33596366010755</v>
+        <v>9.733028927188776</v>
       </c>
       <c r="E5">
-        <v>14.94999822028002</v>
+        <v>9.517239619714154</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.800079124422488</v>
+        <v>2.178109806037868</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>37.57301963624448</v>
+        <v>28.22095397799701</v>
       </c>
       <c r="J5">
-        <v>8.856684772901444</v>
+        <v>5.027923243462796</v>
       </c>
       <c r="K5">
-        <v>18.97662764319254</v>
+        <v>14.39249136063579</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.954971751991</v>
+        <v>14.6716740488313</v>
       </c>
       <c r="N5">
-        <v>26.45184879563389</v>
+        <v>19.12249970118245</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.01396282790125</v>
+        <v>14.01118278191462</v>
       </c>
       <c r="C6">
-        <v>15.88956819467926</v>
+        <v>13.20962034455113</v>
       </c>
       <c r="D6">
-        <v>14.33568522124235</v>
+        <v>9.720284238304325</v>
       </c>
       <c r="E6">
-        <v>14.95056005037477</v>
+        <v>9.509282113528398</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.800243520843365</v>
+        <v>2.178557206133192</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>37.57140791723484</v>
+        <v>28.20182996541534</v>
       </c>
       <c r="J6">
-        <v>8.857491651423189</v>
+        <v>5.029061794054543</v>
       </c>
       <c r="K6">
-        <v>18.97367898518155</v>
+        <v>14.36206780255354</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.95470464178401</v>
+        <v>14.65207905927704</v>
       </c>
       <c r="N6">
-        <v>26.45239281272828</v>
+        <v>19.12328510748162</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.04801522533345</v>
+        <v>14.2651380388643</v>
       </c>
       <c r="C7">
-        <v>15.91884948382841</v>
+        <v>13.41373647723107</v>
       </c>
       <c r="D7">
-        <v>14.3378781965598</v>
+        <v>9.80904687435183</v>
       </c>
       <c r="E7">
-        <v>14.94689498945422</v>
+        <v>9.564944874657334</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.799112727775211</v>
+        <v>2.175466345096608</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.58306366074464</v>
+        <v>28.33570064397583</v>
       </c>
       <c r="J7">
-        <v>8.851959920043145</v>
+        <v>5.021291355946976</v>
       </c>
       <c r="K7">
-        <v>18.99456774894833</v>
+        <v>14.57299488313757</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.95696444706174</v>
+        <v>14.78853740755939</v>
       </c>
       <c r="N7">
-        <v>26.44876995332576</v>
+        <v>19.11830283776067</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.20835693624498</v>
+        <v>15.36158505581422</v>
       </c>
       <c r="C8">
-        <v>16.05651300817981</v>
+        <v>14.3058220336557</v>
       </c>
       <c r="D8">
-        <v>14.35398756193255</v>
+        <v>10.2077114521263</v>
       </c>
       <c r="E8">
-        <v>14.93652949632118</v>
+        <v>9.82112777542827</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.794376845051008</v>
+        <v>2.162172537166325</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37.64607362899816</v>
+        <v>28.95475041188103</v>
       </c>
       <c r="J8">
-        <v>8.829251498197568</v>
+        <v>4.99031459722564</v>
       </c>
       <c r="K8">
-        <v>19.09709273952664</v>
+        <v>15.49612193435537</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>21.97696446023685</v>
+        <v>15.4010297465233</v>
       </c>
       <c r="N8">
-        <v>26.43657570249807</v>
+        <v>19.10832471352392</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.5569614656122</v>
+        <v>17.41267540455669</v>
       </c>
       <c r="C9">
-        <v>16.35535932541371</v>
+        <v>16.01434582522553</v>
       </c>
       <c r="D9">
-        <v>14.40857636389351</v>
+        <v>11.01071446624051</v>
       </c>
       <c r="E9">
-        <v>14.93707228650118</v>
+        <v>10.36095413858614</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.78599559732658</v>
+        <v>2.137181851725918</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>37.81098952931313</v>
+        <v>30.27421923495951</v>
       </c>
       <c r="J9">
-        <v>8.79081143326342</v>
+        <v>4.941874865610447</v>
       </c>
       <c r="K9">
-        <v>19.33434103569485</v>
+        <v>17.26711244296028</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>22.05205344251895</v>
+        <v>16.63307156204276</v>
       </c>
       <c r="N9">
-        <v>26.42630669269455</v>
+        <v>19.1360412195312</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.8319166593815</v>
+        <v>18.85333697592583</v>
       </c>
       <c r="C10">
-        <v>16.59106350668357</v>
+        <v>17.23980536378082</v>
       </c>
       <c r="D10">
-        <v>14.46255974154352</v>
+        <v>11.6111512289774</v>
       </c>
       <c r="E10">
-        <v>14.95017634467596</v>
+        <v>10.7803014395444</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.780383159583796</v>
+        <v>2.119304350298795</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>37.95708991995534</v>
+        <v>31.31224902262726</v>
       </c>
       <c r="J10">
-        <v>8.76625918744662</v>
+        <v>4.914215806633984</v>
       </c>
       <c r="K10">
-        <v>19.52969169380732</v>
+        <v>18.5376767557906</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.12887888691689</v>
+        <v>17.5531439804131</v>
       </c>
       <c r="N10">
-        <v>26.42709312558734</v>
+        <v>19.18954299833545</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.96063321290007</v>
+        <v>19.51713866851567</v>
       </c>
       <c r="C11">
-        <v>16.70145628853206</v>
+        <v>17.79065226260344</v>
       </c>
       <c r="D11">
-        <v>14.49009075897861</v>
+        <v>11.88632939018816</v>
       </c>
       <c r="E11">
-        <v>14.95888805863527</v>
+        <v>10.97611132822004</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.777946833846719</v>
+        <v>2.111232244233513</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.02889558395506</v>
+        <v>31.80058284307856</v>
       </c>
       <c r="J11">
-        <v>8.75588595165909</v>
+        <v>4.903463658982559</v>
       </c>
       <c r="K11">
-        <v>19.62288380068163</v>
+        <v>19.10849893245995</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.1684716600693</v>
+        <v>17.97453478812249</v>
       </c>
       <c r="N11">
-        <v>26.42926221462374</v>
+        <v>19.22214899927298</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.00985784194643</v>
+        <v>19.78856314845497</v>
       </c>
       <c r="C12">
-        <v>16.74368478214142</v>
+        <v>17.99833190406921</v>
       </c>
       <c r="D12">
-        <v>14.50093935236318</v>
+        <v>11.99082508653371</v>
       </c>
       <c r="E12">
-        <v>14.96258128875459</v>
+        <v>11.05100405550542</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.777040942714673</v>
+        <v>2.108180072499372</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.05684718586534</v>
+        <v>31.98794669660533</v>
       </c>
       <c r="J12">
-        <v>8.75207191605058</v>
+        <v>4.899665667692519</v>
       </c>
       <c r="K12">
-        <v>19.65877247472243</v>
+        <v>19.32363371173465</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.18412591894965</v>
+        <v>18.13451270136671</v>
       </c>
       <c r="N12">
-        <v>26.43034410937786</v>
+        <v>19.23578512435737</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.99923563562171</v>
+        <v>19.73026929856399</v>
       </c>
       <c r="C13">
-        <v>16.73457170864345</v>
+        <v>17.9536439616782</v>
       </c>
       <c r="D13">
-        <v>14.49858416752915</v>
+        <v>11.96830691292437</v>
       </c>
       <c r="E13">
-        <v>14.96176837176832</v>
+        <v>11.03484107982104</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.777235301810991</v>
+        <v>2.108837280747987</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.0507936281756</v>
+        <v>31.9474836530641</v>
       </c>
       <c r="J13">
-        <v>8.75288826829747</v>
+        <v>4.900471284196625</v>
       </c>
       <c r="K13">
-        <v>19.65101695476039</v>
+        <v>19.2773455197771</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.18072519307772</v>
+        <v>18.10004025182827</v>
       </c>
       <c r="N13">
-        <v>26.43009951764313</v>
+        <v>19.23278930651875</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.96467351927625</v>
+        <v>19.53954230279708</v>
       </c>
       <c r="C14">
-        <v>16.70492211004521</v>
+        <v>17.80775613899725</v>
       </c>
       <c r="D14">
-        <v>14.49097482488102</v>
+        <v>11.89492040786138</v>
       </c>
       <c r="E14">
-        <v>14.95918400869909</v>
+        <v>10.9822577485666</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.777871971683301</v>
+        <v>2.110981074320924</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.03117998947742</v>
+        <v>31.81594762665512</v>
       </c>
       <c r="J14">
-        <v>8.755569884169443</v>
+        <v>4.903145648015231</v>
       </c>
       <c r="K14">
-        <v>19.62582451885202</v>
+        <v>19.12621851199184</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.16974633129731</v>
+        <v>17.98768803458114</v>
       </c>
       <c r="N14">
-        <v>26.42934600172607</v>
+        <v>19.22324440791877</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94356483508795</v>
+        <v>19.4222383675064</v>
       </c>
       <c r="C15">
-        <v>16.68681531734827</v>
+        <v>17.71827846139622</v>
       </c>
       <c r="D15">
-        <v>14.48636885572858</v>
+        <v>11.85000732642926</v>
       </c>
       <c r="E15">
-        <v>14.9576523190858</v>
+        <v>10.95014652547042</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.778264121171454</v>
+        <v>2.112294672344517</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.01926483697585</v>
+        <v>31.73570020980593</v>
       </c>
       <c r="J15">
-        <v>8.757227298419675</v>
+        <v>4.9048197370128</v>
       </c>
       <c r="K15">
-        <v>19.61047070277779</v>
+        <v>19.03351655390306</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.1631073801656</v>
+        <v>17.91892239440982</v>
       </c>
       <c r="N15">
-        <v>26.42891837768985</v>
+        <v>19.21756889134058</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.82357447806837</v>
+        <v>18.81117086147942</v>
       </c>
       <c r="C16">
-        <v>16.58391025989121</v>
+        <v>17.20367524809381</v>
       </c>
       <c r="D16">
-        <v>14.4608199966245</v>
+        <v>11.59320815229921</v>
       </c>
       <c r="E16">
-        <v>14.94966226274058</v>
+        <v>10.76760765483952</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.780544720689734</v>
+        <v>2.119832755731719</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>37.95250410964527</v>
+        <v>31.28066973479678</v>
       </c>
       <c r="J16">
-        <v>8.766953085459708</v>
+        <v>4.914956176336981</v>
       </c>
       <c r="K16">
-        <v>19.52368646204916</v>
+        <v>18.50022763900134</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.12638432321546</v>
+        <v>17.52566145900298</v>
       </c>
       <c r="N16">
-        <v>26.42698782364787</v>
+        <v>19.18758680247722</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.75086740134801</v>
+        <v>18.44000247495073</v>
       </c>
       <c r="C17">
-        <v>16.52157164223731</v>
+        <v>16.88630039463782</v>
       </c>
       <c r="D17">
-        <v>14.44590524667809</v>
+        <v>11.43618522943236</v>
       </c>
       <c r="E17">
-        <v>14.9454643175648</v>
+        <v>10.6569280915019</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.781973636421066</v>
+        <v>2.124469820674361</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>37.91291175119692</v>
+        <v>31.00573372390991</v>
       </c>
       <c r="J17">
-        <v>8.77312309833377</v>
+        <v>4.921650340677887</v>
       </c>
       <c r="K17">
-        <v>19.47153899227187</v>
+        <v>18.17122864886082</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.10504106755569</v>
+        <v>17.2851263714904</v>
       </c>
       <c r="N17">
-        <v>26.42626746029343</v>
+        <v>19.17137928092503</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.7093931421499</v>
+        <v>18.22513457028318</v>
       </c>
       <c r="C18">
-        <v>16.48601636574113</v>
+        <v>16.7031266462714</v>
       </c>
       <c r="D18">
-        <v>14.43760687243769</v>
+        <v>11.34606047831293</v>
       </c>
       <c r="E18">
-        <v>14.94330876176155</v>
+        <v>10.59374148726329</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.782806510900843</v>
+        <v>2.127142903158885</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>37.89064279733472</v>
+        <v>30.84910714208901</v>
       </c>
       <c r="J18">
-        <v>8.776746841959476</v>
+        <v>4.925672210658854</v>
       </c>
       <c r="K18">
-        <v>19.44195380929346</v>
+        <v>17.98131973925553</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.09320259196774</v>
+        <v>17.14704324115094</v>
       </c>
       <c r="N18">
-        <v>26.42602361841552</v>
+        <v>19.16282877301821</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.69541113806511</v>
+        <v>18.15214639310295</v>
       </c>
       <c r="C19">
-        <v>16.47403044858459</v>
+        <v>16.64099883273852</v>
       </c>
       <c r="D19">
-        <v>14.43484543603507</v>
+        <v>11.31557886753434</v>
       </c>
       <c r="E19">
-        <v>14.94262344321481</v>
+        <v>10.57242850979279</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.783090400290615</v>
+        <v>2.128049105614463</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37.88318962639708</v>
+        <v>30.79633197653676</v>
       </c>
       <c r="J19">
-        <v>8.777986656415218</v>
+        <v>4.927063114275153</v>
       </c>
       <c r="K19">
-        <v>19.43200765215413</v>
+        <v>17.91690399413296</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.08926963286447</v>
+        <v>17.10033695306141</v>
       </c>
       <c r="N19">
-        <v>26.42597033794185</v>
+        <v>19.16006336614684</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.75857178723124</v>
+        <v>18.4796568791203</v>
       </c>
       <c r="C20">
-        <v>16.52817683964282</v>
+        <v>16.92015036149177</v>
       </c>
       <c r="D20">
-        <v>14.44746397860625</v>
+        <v>11.45288091958064</v>
       </c>
       <c r="E20">
-        <v>14.94588439959708</v>
+        <v>10.6686610331722</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.781820388202583</v>
+        <v>2.123975608190411</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>37.91707436895121</v>
+        <v>31.03484411345611</v>
       </c>
       <c r="J20">
-        <v>8.77245853894569</v>
+        <v>4.920919907473179</v>
       </c>
       <c r="K20">
-        <v>19.47704804931733</v>
+        <v>18.20632134710154</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.10726784866774</v>
+        <v>17.31070429415692</v>
       </c>
       <c r="N20">
-        <v>26.42632649864348</v>
+        <v>19.17302404710274</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.97481248481762</v>
+        <v>19.59566277617133</v>
       </c>
       <c r="C21">
-        <v>16.71361962587626</v>
+        <v>17.85063121832147</v>
       </c>
       <c r="D21">
-        <v>14.49319842552771</v>
+        <v>11.91646780289283</v>
       </c>
       <c r="E21">
-        <v>14.95993240893992</v>
+        <v>10.99768236260994</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.777684514098165</v>
+        <v>2.110351301885086</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.0369204230344</v>
+        <v>31.85451554101087</v>
       </c>
       <c r="J21">
-        <v>8.754779135060042</v>
+        <v>4.902352607243468</v>
       </c>
       <c r="K21">
-        <v>19.63320808623858</v>
+        <v>19.17063567552326</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.17295319644421</v>
+        <v>18.02067745202199</v>
       </c>
       <c r="N21">
-        <v>26.42956025740623</v>
+        <v>19.22601214389904</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.11893108453795</v>
+        <v>20.37896667420044</v>
       </c>
       <c r="C22">
-        <v>16.83728053122012</v>
+        <v>18.45347516357824</v>
       </c>
       <c r="D22">
-        <v>14.52555284222065</v>
+        <v>12.22116213490973</v>
       </c>
       <c r="E22">
-        <v>14.97141108070508</v>
+        <v>11.21706891032148</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.775078730667698</v>
+        <v>2.101471310653968</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.11967438934569</v>
+        <v>32.40453274749212</v>
       </c>
       <c r="J22">
-        <v>8.743889435261396</v>
+        <v>4.891818419778909</v>
       </c>
       <c r="K22">
-        <v>19.7387466853107</v>
+        <v>19.79494131922035</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.21973358606067</v>
+        <v>18.48707487367757</v>
       </c>
       <c r="N22">
-        <v>26.4331921318154</v>
+        <v>19.26821031976733</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.04177036324376</v>
+        <v>19.96281483554033</v>
       </c>
       <c r="C23">
-        <v>16.77106530779</v>
+        <v>18.13218504244972</v>
       </c>
       <c r="D23">
-        <v>14.50806078155038</v>
+        <v>12.05837965828492</v>
       </c>
       <c r="E23">
-        <v>14.96507495368775</v>
+        <v>11.09957098877409</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.776460621979018</v>
+        <v>2.106210008773296</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.07510478004999</v>
+        <v>32.10962026718739</v>
       </c>
       <c r="J23">
-        <v>8.74964075321882</v>
+        <v>4.897290468936947</v>
       </c>
       <c r="K23">
-        <v>19.68210838284653</v>
+        <v>19.46226654315016</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>22.19441597418911</v>
+        <v>18.23792432612093</v>
       </c>
       <c r="N23">
-        <v>26.43111479423322</v>
+        <v>19.24496000676135</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.75508761580165</v>
+        <v>18.46173372939903</v>
       </c>
       <c r="C24">
-        <v>16.52518974287763</v>
+        <v>16.9048490075109</v>
       </c>
       <c r="D24">
-        <v>14.44675841490651</v>
+        <v>11.44533233106646</v>
       </c>
       <c r="E24">
-        <v>14.94569367710879</v>
+        <v>10.66335518677021</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.781889636290789</v>
+        <v>2.124199019009453</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>37.91519091244913</v>
+        <v>31.02167883687425</v>
       </c>
       <c r="J24">
-        <v>8.772758747864266</v>
+        <v>4.921249597291421</v>
       </c>
       <c r="K24">
-        <v>19.47455617219926</v>
+        <v>18.19045831479846</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.10625977466287</v>
+        <v>17.29913988024314</v>
       </c>
       <c r="N24">
-        <v>26.42629927686907</v>
+        <v>19.17227806543607</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.45919577536643</v>
+        <v>16.86919588455898</v>
       </c>
       <c r="C25">
-        <v>16.27156692013156</v>
+        <v>15.55717686105928</v>
       </c>
       <c r="D25">
-        <v>14.39135933674146</v>
+        <v>10.7915074611604</v>
       </c>
       <c r="E25">
-        <v>14.93469204556397</v>
+        <v>10.21093335570318</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.788166693239797</v>
+        <v>2.14384397149886</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>37.76197330375021</v>
+        <v>29.90556749005889</v>
       </c>
       <c r="J25">
-        <v>8.800560851360778</v>
+        <v>4.953620272934174</v>
       </c>
       <c r="K25">
-        <v>19.2663836184476</v>
+        <v>16.79305656685827</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>22.02791845344457</v>
+        <v>16.29693917480072</v>
       </c>
       <c r="N25">
-        <v>26.42762251324469</v>
+        <v>19.123059253839</v>
       </c>
       <c r="O25">
         <v>0</v>
